--- a/biology/Botanique/Premnotrypes/Premnotrypes.xlsx
+++ b/biology/Botanique/Premnotrypes/Premnotrypes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salanophagus
-Premnotrypes est un genre d'insectes coléoptères, de la famille des Curculionidae, originaires d'Amérique du Sud. Plusieurs espèces de ce genre sont des ravageurs de la pomme de terre, dont les larves se nourrissent des tubercules au champ, en particulier en Colombie, en Équateur, au Pérou et en Bolivie[1].
+Premnotrypes est un genre d'insectes coléoptères, de la famille des Curculionidae, originaires d'Amérique du Sud. Plusieurs espèces de ce genre sont des ravageurs de la pomme de terre, dont les larves se nourrissent des tubercules au champ, en particulier en Colombie, en Équateur, au Pérou et en Bolivie.
 </t>
         </is>
       </c>
@@ -512,11 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Premnotrypes est décrit par Pierce (en) en 1914.
-Synonymes
-Salanophagus Hustache, 1933</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Premnotrypes est décrit par Pierce (en) en 1914.
+</t>
         </is>
       </c>
     </row>
@@ -541,12 +554,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Salanophagus Hustache, 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Premnotrypes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Premnotrypes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre comprend au moins huit espèces[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce genre comprend au moins huit espèces :
 Premnotrypes latithorax Pierce,
 Premnotrypes suturicallus Kuschel
 Premnotrypes vorax Hustache,
